--- a/Heckerling/um_2.xlsx
+++ b/Heckerling/um_2.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25605" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="37060" yWindow="3140" windowWidth="29460" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
     <sheet name="Speakers" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sessions!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sessions!$A$1:$O$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Speakers!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="495">
   <si>
     <t>Date</t>
   </si>
@@ -1406,12 +1406,6 @@
     <t>Snyder_Bio2018.pdf</t>
   </si>
   <si>
-    <t>General Session</t>
-  </si>
-  <si>
-    <t>Special Session</t>
-  </si>
-  <si>
     <t>SessionID</t>
   </si>
   <si>
@@ -1554,58 +1548,6 @@
   </si>
   <si>
     <t>Fundamentals Program</t>
-  </si>
-  <si>
-    <r>
-      <t>Fundamentals Program (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Runs concurrently with Special Sessions I and II</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fundamentals Program (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Runs concurrently with Special Sessions III and IV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1654,6 +1596,12 @@
   <si>
     <t>ProgramTitle</t>
   </si>
+  <si>
+    <t>General Sessions</t>
+  </si>
+  <si>
+    <t>Special Sessions</t>
+  </si>
 </sst>
 </file>
 
@@ -1663,7 +1611,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1754,14 +1702,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF231F20"/>
@@ -1805,8 +1745,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1939,7 +1881,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1947,6 +1889,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1954,6 +1897,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2221,7 +2165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2229,33 +2173,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="63.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="61.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="63.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="5"/>
+    <col min="15" max="15" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="9" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2266,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -2302,7 +2246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="9" customFormat="1">
       <c r="A2" s="28">
         <v>43121</v>
       </c>
@@ -2314,7 +2258,7 @@
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -2327,7 +2271,7 @@
       <c r="N2" s="24"/>
       <c r="O2" s="24"/>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="9" customFormat="1">
       <c r="A3" s="28">
         <v>43122</v>
       </c>
@@ -2337,7 +2281,7 @@
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -2350,7 +2294,7 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="105">
       <c r="A4" s="10">
         <v>43122</v>
       </c>
@@ -2365,7 +2309,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>63</v>
@@ -2384,10 +2328,10 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="28">
         <v>43122</v>
       </c>
@@ -2399,7 +2343,7 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="12"/>
@@ -2412,7 +2356,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="28">
         <v>43122</v>
       </c>
@@ -2424,7 +2368,7 @@
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="12"/>
@@ -2437,7 +2381,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="75">
       <c r="A7" s="25">
         <v>43122</v>
       </c>
@@ -2449,15 +2393,15 @@
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -2466,7 +2410,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="150">
       <c r="A8" s="10">
         <v>43122</v>
       </c>
@@ -2496,10 +2440,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -2507,7 +2451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="28">
         <v>43122</v>
       </c>
@@ -2519,7 +2463,7 @@
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="12"/>
@@ -2532,7 +2476,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="28">
         <v>43122</v>
       </c>
@@ -2544,7 +2488,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="12"/>
@@ -2557,7 +2501,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="90">
       <c r="A11" s="13">
         <v>43123</v>
       </c>
@@ -2587,10 +2531,10 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="60">
       <c r="A12" s="10">
         <v>43123</v>
       </c>
@@ -2620,10 +2564,10 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="28">
         <v>43123</v>
       </c>
@@ -2635,7 +2579,7 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="12"/>
@@ -2648,7 +2592,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="94.5" customHeight="1">
       <c r="A14" s="10">
         <v>43123</v>
       </c>
@@ -2663,7 +2607,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>67</v>
@@ -2678,10 +2622,10 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="105">
       <c r="A15" s="10">
         <v>43123</v>
       </c>
@@ -2696,7 +2640,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>68</v>
@@ -2711,10 +2655,10 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="28">
         <v>43123</v>
       </c>
@@ -2726,7 +2670,7 @@
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
@@ -2739,7 +2683,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="60">
       <c r="A17" s="10">
         <v>43123</v>
       </c>
@@ -2769,10 +2713,10 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30">
       <c r="A18" s="10">
         <v>43123</v>
       </c>
@@ -2802,10 +2746,10 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="28">
         <v>43123</v>
       </c>
@@ -2817,7 +2761,7 @@
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
@@ -2830,7 +2774,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="60">
       <c r="A20" s="10">
         <v>43123</v>
       </c>
@@ -2845,7 +2789,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>71</v>
@@ -2860,10 +2804,10 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="75">
       <c r="A21" s="10">
         <v>43123</v>
       </c>
@@ -2878,7 +2822,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>72</v>
@@ -2893,10 +2837,10 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="120">
       <c r="A22" s="10">
         <v>43124</v>
       </c>
@@ -2911,7 +2855,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>73</v>
@@ -2926,10 +2870,10 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="105">
       <c r="A23" s="10">
         <v>43124</v>
       </c>
@@ -2959,10 +2903,10 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="28">
         <v>43124</v>
       </c>
@@ -2974,7 +2918,7 @@
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="12"/>
@@ -2987,7 +2931,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="30">
       <c r="A25" s="2">
         <v>43124</v>
       </c>
@@ -3016,7 +2960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="33">
         <v>43124</v>
       </c>
@@ -3028,10 +2972,10 @@
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="31" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="60">
       <c r="A27" s="10">
         <v>43124</v>
       </c>
@@ -3062,11 +3006,11 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="27" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O27" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="90">
       <c r="A28" s="10">
         <v>43124</v>
       </c>
@@ -3077,7 +3021,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>59</v>
@@ -3102,10 +3046,10 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="60">
       <c r="A29" s="10">
         <v>43124</v>
       </c>
@@ -3116,7 +3060,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>77</v>
@@ -3139,10 +3083,10 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="90">
       <c r="A30" s="10">
         <v>43124</v>
       </c>
@@ -3153,7 +3097,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>81</v>
@@ -3176,10 +3120,10 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="45">
       <c r="A31" s="10">
         <v>43124</v>
       </c>
@@ -3190,7 +3134,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>85</v>
@@ -3211,10 +3155,10 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="45">
       <c r="A32" s="10">
         <v>43124</v>
       </c>
@@ -3225,13 +3169,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>89</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>90</v>
@@ -3250,10 +3194,10 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="90">
       <c r="A33" s="10">
         <v>43124</v>
       </c>
@@ -3264,13 +3208,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>95</v>
@@ -3289,10 +3233,10 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="28">
         <v>43124</v>
       </c>
@@ -3304,7 +3248,7 @@
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="12"/>
@@ -3317,7 +3261,7 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="60">
       <c r="A35" s="10">
         <v>43124</v>
       </c>
@@ -3328,13 +3272,13 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>99</v>
@@ -3353,10 +3297,10 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="45">
       <c r="A36" s="10">
         <v>43124</v>
       </c>
@@ -3367,7 +3311,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>102</v>
@@ -3390,10 +3334,10 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="135">
       <c r="A37" s="10">
         <v>43124</v>
       </c>
@@ -3404,7 +3348,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>106</v>
@@ -3429,10 +3373,10 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="105">
       <c r="A38" s="10">
         <v>43124</v>
       </c>
@@ -3443,7 +3387,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>112</v>
@@ -3468,10 +3412,10 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="60">
       <c r="A39" s="10">
         <v>43124</v>
       </c>
@@ -3482,7 +3426,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>117</v>
@@ -3507,10 +3451,10 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="45">
       <c r="A40" s="10">
         <v>43124</v>
       </c>
@@ -3521,7 +3465,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>122</v>
@@ -3546,10 +3490,10 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="105">
       <c r="A41" s="10">
         <v>43125</v>
       </c>
@@ -3579,10 +3523,10 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="75">
       <c r="A42" s="10">
         <v>43125</v>
       </c>
@@ -3612,10 +3556,10 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="28">
         <v>43125</v>
       </c>
@@ -3627,7 +3571,7 @@
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="12"/>
@@ -3640,7 +3584,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="90">
       <c r="A44" s="10">
         <v>43125</v>
       </c>
@@ -3655,7 +3599,7 @@
         <v>136</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>137</v>
@@ -3670,10 +3614,10 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="90">
       <c r="A45" s="10">
         <v>43125</v>
       </c>
@@ -3703,10 +3647,10 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="28">
         <v>43125</v>
       </c>
@@ -3718,7 +3662,7 @@
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="12"/>
@@ -3731,7 +3675,7 @@
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="90">
       <c r="A47" s="10">
         <v>43125</v>
       </c>
@@ -3766,11 +3710,11 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="27" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O47" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="75">
       <c r="A48" s="10">
         <v>43125</v>
       </c>
@@ -3781,7 +3725,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>149</v>
@@ -3808,10 +3752,10 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="79.5" customHeight="1">
       <c r="A49" s="10">
         <v>43125</v>
       </c>
@@ -3822,13 +3766,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>154</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>155</v>
@@ -3847,10 +3791,10 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="110.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="105">
       <c r="A50" s="10">
         <v>43125</v>
       </c>
@@ -3861,13 +3805,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>158</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>159</v>
@@ -3886,10 +3830,10 @@
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="45">
       <c r="A51" s="10">
         <v>43125</v>
       </c>
@@ -3900,13 +3844,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>163</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>164</v>
@@ -3921,10 +3865,10 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="75">
       <c r="A52" s="10">
         <v>43125</v>
       </c>
@@ -3935,13 +3879,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>165</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>166</v>
@@ -3960,10 +3904,10 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="120">
       <c r="A53" s="10">
         <v>43125</v>
       </c>
@@ -3974,13 +3918,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>171</v>
@@ -3997,10 +3941,10 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="28">
         <v>43125</v>
       </c>
@@ -4012,7 +3956,7 @@
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="32" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="20"/>
@@ -4025,7 +3969,7 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="45">
       <c r="A55" s="10">
         <v>43125</v>
       </c>
@@ -4036,7 +3980,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>174</v>
@@ -4057,10 +4001,10 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="126" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="120">
       <c r="A56" s="10">
         <v>43125</v>
       </c>
@@ -4071,13 +4015,13 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>178</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>179</v>
@@ -4094,10 +4038,10 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="75">
       <c r="A57" s="10">
         <v>43125</v>
       </c>
@@ -4108,7 +4052,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>181</v>
@@ -4131,10 +4075,10 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="60">
       <c r="A58" s="10">
         <v>43125</v>
       </c>
@@ -4145,7 +4089,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>185</v>
@@ -4170,10 +4114,10 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="75">
       <c r="A59" s="10">
         <v>43125</v>
       </c>
@@ -4184,7 +4128,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>191</v>
@@ -4215,10 +4159,10 @@
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="60">
       <c r="A60" s="10">
         <v>43126</v>
       </c>
@@ -4248,10 +4192,10 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="60">
       <c r="A61" s="10">
         <v>43126</v>
       </c>
@@ -4281,10 +4225,10 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="28">
         <v>43126</v>
       </c>
@@ -4296,7 +4240,7 @@
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="12"/>
@@ -4309,7 +4253,7 @@
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="75">
       <c r="A63" s="10">
         <v>43126</v>
       </c>
@@ -4341,10 +4285,10 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4361,7 +4305,7 @@
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4378,7 +4322,7 @@
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4395,7 +4339,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4412,7 +4356,7 @@
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4429,7 +4373,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4446,7 +4390,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4463,7 +4407,7 @@
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4480,7 +4424,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4497,7 +4441,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4514,7 +4458,7 @@
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4531,7 +4475,7 @@
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4548,7 +4492,7 @@
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4565,7 +4509,7 @@
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4582,7 +4526,7 @@
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4599,7 +4543,7 @@
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4616,7 +4560,7 @@
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4633,7 +4577,7 @@
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4650,7 +4594,7 @@
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4667,7 +4611,7 @@
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4684,7 +4628,7 @@
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4701,7 +4645,7 @@
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4718,7 +4662,7 @@
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4735,7 +4679,7 @@
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4752,7 +4696,7 @@
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4769,7 +4713,7 @@
       <c r="N88" s="12"/>
       <c r="O88" s="12"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4786,7 +4730,7 @@
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4803,7 +4747,7 @@
       <c r="N90" s="12"/>
       <c r="O90" s="12"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4820,7 +4764,7 @@
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4837,7 +4781,7 @@
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4854,7 +4798,7 @@
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -4871,7 +4815,7 @@
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -4888,7 +4832,7 @@
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -4905,7 +4849,7 @@
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -4922,7 +4866,7 @@
       <c r="N97" s="12"/>
       <c r="O97" s="12"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -4939,7 +4883,7 @@
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -4956,7 +4900,7 @@
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -4973,7 +4917,7 @@
       <c r="N100" s="12"/>
       <c r="O100" s="12"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -4990,7 +4934,7 @@
       <c r="N101" s="12"/>
       <c r="O101" s="12"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -5007,7 +4951,7 @@
       <c r="N102" s="12"/>
       <c r="O102" s="12"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5024,7 +4968,7 @@
       <c r="N103" s="12"/>
       <c r="O103" s="12"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -5041,7 +4985,7 @@
       <c r="N104" s="12"/>
       <c r="O104" s="12"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -5058,7 +5002,7 @@
       <c r="N105" s="12"/>
       <c r="O105" s="12"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -5075,7 +5019,7 @@
       <c r="N106" s="12"/>
       <c r="O106" s="12"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -5092,7 +5036,7 @@
       <c r="N107" s="12"/>
       <c r="O107" s="12"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -5109,7 +5053,7 @@
       <c r="N108" s="12"/>
       <c r="O108" s="12"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -5126,7 +5070,7 @@
       <c r="N109" s="12"/>
       <c r="O109" s="12"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -5143,7 +5087,7 @@
       <c r="N110" s="12"/>
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -5160,7 +5104,7 @@
       <c r="N111" s="12"/>
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -5177,7 +5121,7 @@
       <c r="N112" s="12"/>
       <c r="O112" s="12"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -5194,7 +5138,7 @@
       <c r="N113" s="12"/>
       <c r="O113" s="12"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -5211,7 +5155,7 @@
       <c r="N114" s="12"/>
       <c r="O114" s="12"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -5228,7 +5172,7 @@
       <c r="N115" s="12"/>
       <c r="O115" s="12"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -5245,7 +5189,7 @@
       <c r="N116" s="12"/>
       <c r="O116" s="12"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -5263,10 +5207,10 @@
       <c r="O117" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:O63"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="46" fitToHeight="0" orientation="landscape" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="46" fitToHeight="0" orientation="landscape" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5283,15 +5227,15 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5305,7 +5249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>210</v>
       </c>
@@ -5319,7 +5263,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>211</v>
       </c>
@@ -5330,7 +5274,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="22" t="s">
         <v>213</v>
       </c>
@@ -5344,7 +5288,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
         <v>214</v>
       </c>
@@ -5358,7 +5302,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
         <v>215</v>
       </c>
@@ -5372,7 +5316,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
         <v>216</v>
       </c>
@@ -5386,7 +5330,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
         <v>217</v>
       </c>
@@ -5400,7 +5344,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
         <v>218</v>
       </c>
@@ -5414,7 +5358,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
         <v>219</v>
       </c>
@@ -5428,7 +5372,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
         <v>220</v>
       </c>
@@ -5442,7 +5386,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="21" t="s">
         <v>221</v>
       </c>
@@ -5453,7 +5397,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
         <v>223</v>
       </c>
@@ -5467,7 +5411,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
         <v>224</v>
       </c>
@@ -5481,7 +5425,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
         <v>225</v>
       </c>
@@ -5495,7 +5439,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
         <v>226</v>
       </c>
@@ -5509,7 +5453,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="21" t="s">
         <v>227</v>
       </c>
@@ -5520,7 +5464,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
         <v>229</v>
       </c>
@@ -5531,7 +5475,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="21" t="s">
         <v>231</v>
       </c>
@@ -5545,7 +5489,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="21" t="s">
         <v>232</v>
       </c>
@@ -5559,7 +5503,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="21" t="s">
         <v>233</v>
       </c>
@@ -5573,7 +5517,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="21" t="s">
         <v>234</v>
       </c>
@@ -5587,7 +5531,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
         <v>235</v>
       </c>
@@ -5601,7 +5545,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
         <v>236</v>
       </c>
@@ -5612,7 +5556,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
         <v>237</v>
       </c>
@@ -5626,7 +5570,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="21" t="s">
         <v>238</v>
       </c>
@@ -5637,7 +5581,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="21" t="s">
         <v>240</v>
       </c>
@@ -5651,7 +5595,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
         <v>241</v>
       </c>
@@ -5665,7 +5609,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
         <v>242</v>
       </c>
@@ -5679,7 +5623,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
         <v>243</v>
       </c>
@@ -5693,7 +5637,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
         <v>244</v>
       </c>
@@ -5707,7 +5651,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
         <v>245</v>
       </c>
@@ -5721,7 +5665,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="22" t="s">
         <v>246</v>
       </c>
@@ -5735,7 +5679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="22" t="s">
         <v>247</v>
       </c>
@@ -5749,7 +5693,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="21" t="s">
         <v>248</v>
       </c>
@@ -5763,7 +5707,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="21" t="s">
         <v>249</v>
       </c>
@@ -5777,7 +5721,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="21" t="s">
         <v>250</v>
       </c>
@@ -5791,7 +5735,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="22" t="s">
         <v>251</v>
       </c>
@@ -5802,7 +5746,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="21" t="s">
         <v>253</v>
       </c>
@@ -5816,7 +5760,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="21" t="s">
         <v>254</v>
       </c>
@@ -5827,7 +5771,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="21" t="s">
         <v>256</v>
       </c>
@@ -5841,7 +5785,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="21" t="s">
         <v>257</v>
       </c>
@@ -5855,7 +5799,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="21" t="s">
         <v>258</v>
       </c>
@@ -5869,7 +5813,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="21" t="s">
         <v>259</v>
       </c>
@@ -5883,7 +5827,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="21" t="s">
         <v>260</v>
       </c>
@@ -5894,7 +5838,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="21" t="s">
         <v>262</v>
       </c>
@@ -5908,7 +5852,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="21" t="s">
         <v>263</v>
       </c>
@@ -5922,7 +5866,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="21" t="s">
         <v>264</v>
       </c>
@@ -5936,7 +5880,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="21" t="s">
         <v>265</v>
       </c>
@@ -5950,7 +5894,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="21" t="s">
         <v>266</v>
       </c>
@@ -5964,7 +5908,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="21" t="s">
         <v>267</v>
       </c>
@@ -5978,7 +5922,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="21" t="s">
         <v>268</v>
       </c>
@@ -5992,7 +5936,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="21" t="s">
         <v>269</v>
       </c>
@@ -6006,7 +5950,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="21" t="s">
         <v>270</v>
       </c>
@@ -6017,7 +5961,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
         <v>272</v>
       </c>
@@ -6031,7 +5975,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="21" t="s">
         <v>273</v>
       </c>
@@ -6045,7 +5989,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="21" t="s">
         <v>274</v>
       </c>
@@ -6059,7 +6003,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="22" t="s">
         <v>275</v>
       </c>
@@ -6073,7 +6017,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="21" t="s">
         <v>276</v>
       </c>
@@ -6087,7 +6031,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="21" t="s">
         <v>277</v>
       </c>
@@ -6101,7 +6045,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
         <v>278</v>
       </c>
@@ -6112,7 +6056,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="21" t="s">
         <v>279</v>
       </c>
@@ -6126,7 +6070,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="22" t="s">
         <v>280</v>
       </c>
@@ -6137,7 +6081,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="21" t="s">
         <v>282</v>
       </c>
@@ -6151,7 +6095,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="21" t="s">
         <v>283</v>
       </c>
@@ -6165,7 +6109,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="21" t="s">
         <v>284</v>
       </c>
@@ -6179,7 +6123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
         <v>285</v>
       </c>
@@ -6193,7 +6137,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="21" t="s">
         <v>286</v>
       </c>
@@ -6204,7 +6148,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
         <v>288</v>
       </c>
@@ -6218,7 +6162,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
         <v>289</v>
       </c>
@@ -6229,7 +6173,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
         <v>291</v>
       </c>
@@ -6243,7 +6187,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="22" t="s">
         <v>292</v>
       </c>
@@ -6257,7 +6201,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="21" t="s">
         <v>293</v>
       </c>
@@ -6275,7 +6219,7 @@
   <autoFilter ref="A1:D1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Heckerling/um_2.xlsx
+++ b/Heckerling/um_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37060" yWindow="3140" windowWidth="29460" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="494">
   <si>
     <t>Date</t>
   </si>
@@ -87,9 +87,6 @@
 </t>
   </si>
   <si>
-    <t>Stephanie Loomis- Price</t>
-  </si>
-  <si>
     <t>Samuel A. Donaldson</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Recent Developments 2017</t>
   </si>
   <si>
-    <t>This panel will analyze the most significant developments of 2017, including the planning implications of enacted or anticipated legislation.</t>
-  </si>
-  <si>
     <t>Carol A. Harrington</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Paul S. Lee</t>
   </si>
   <si>
-    <t>Business Succession:  Abdicate? Affiliate? Alienate? Bifurcate? Syndicate? Liquidate? Vacillate? Don't Wait. Cogitate and Participate.</t>
-  </si>
-  <si>
     <t>Business succession planning is the process of planning to exit the business, either through sale or through transfer to succeeding generations. This session will examine selected tax and non-tax issues associated with exiting the business, and how planning must work with either form of exit.</t>
   </si>
   <si>
@@ -138,27 +129,10 @@
     <t>Diana S.C. Zeydel</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Lloyd Leva Plaine Distinguished Lecture                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Money in Politics: A Hydraulic or a Legal Issue?</t>
-    </r>
-  </si>
-  <si>
     <t>Trevor Potter</t>
   </si>
   <si>
     <t>Estate Planning in Anticipation of a Contest or a Difficult Beneficiary</t>
-  </si>
-  <si>
-    <t>This session will focus on practical issues in structuring an estate plan to withstand a potential contest or a beneficiary likely to disrupt the post-death administration.  It will focus on enhancing the enforceability of no contest clauses as well as structuring an estate plan to mitigate fiduciary risk.</t>
   </si>
   <si>
     <t>S. Andrew Pharies</t>
@@ -475,9 +449,6 @@
     <t>Dishing the Dirt on Planning for Real Estate Investors</t>
   </si>
   <si>
-    <t>This program will focus on the income tax and wealth transfer tax planning opportunities (and pitfalls) associated with planning for real estate investors including a discussion of non-tax considerations and obstacles, such as obtaining  third-party consents.  The program will also explore valuation discount planning, freeze, and leveraging strategies for specific types of assets and ownership structures typically found in real estate deals.</t>
-  </si>
-  <si>
     <t>Chapter_14.pdf</t>
   </si>
   <si>
@@ -509,9 +480,6 @@
 </t>
   </si>
   <si>
-    <t>After three years of collaborative effort, last summer the Uniform Law Commission approved the Uniform Directed Trust Act. This panel will explore the effective use of directed trusts, including  fiduciary and tax  issues, from drafting, administration, and beneficiary points of view in light of the new uniform act and existing state statutes.</t>
-  </si>
-  <si>
     <t>III-A. pdf</t>
   </si>
   <si>
@@ -582,9 +550,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Magic Age is 70½ </t>
-  </si>
-  <si>
-    <t>At 70½  your IRA tax shelter becomes a tax nightmare. Help older clients minimize or eliminate RMDs. Plus, when and how to take RMDs, and where  to take them from.</t>
   </si>
   <si>
     <t>IV-A.pdf</t>
@@ -1490,12 +1455,6 @@
     <t>Introductory Remarks</t>
   </si>
   <si>
-    <t>Tina Portuondo, Director, Heckerling Institute</t>
-  </si>
-  <si>
-    <t>Patricia D. White, Dean, University of Miami School of Law</t>
-  </si>
-  <si>
     <t>Welcome Reception</t>
   </si>
   <si>
@@ -1505,9 +1464,6 @@
     <t>Tax law and concerns about asset protection have driven estate planners to create trusts with longer and longer durations. Keeping these trusts healthy can be challenging. How do we build muscle to withstand challenges? Should we go lean if the estate and GST taxes are repealed? What are the best practices to achieve a fit and flexible trust in uncertain times?</t>
   </si>
   <si>
-    <t>For over a century federal law has attempted to regulate the sources and amounts of money in elections. The result proves to some that money is a hydraulic force:  efforts to channel it only result in broken dikes and washed away dams. Others believe that the problem is inartful drafting, failed regulators, partisan greediness, the leveraging of the tax code to subvert the campaign finance laws, and a Supreme Court which has  no understanding of how politics and the legislative system actually work. Which is it?</t>
-  </si>
-  <si>
     <t>Will drafting, the role of the attorney as counselor and witness, and pleading and the presentation of facts in a will contest trial will be addressed on the eve of the anniversary of the signing of the last will and testament of the speaker’s ancestor, a Florida slave owner whose will emancipated the mother of his children and their offspring.</t>
   </si>
   <si>
@@ -1517,30 +1473,15 @@
     <t>Not sure that the Beatles were thinking about financing long-term care, but you and your clients should be! Seventy percent of Americans age 65 and older will need some form of long-term care during their lifetime. Unfortunately, the U.S. has no health insurance system for long-term care. To many, this comes as a rude awakening as their health declines and the need for care arises. This presentation will address the myriad of options available to people in need of long-term care, how to finance such care, and other issues that should be addressed during this process.</t>
   </si>
   <si>
-    <t>This panel will discuss new laws, regulations and options that estate planners must know to plan effectively for a secure quality of life for a  person with a disability.</t>
-  </si>
-  <si>
     <t>A critical question for philanthropic clients is what structure or combination of structures should be used to fulfill their goals. This session will consider not only the more standard options of private foundations, private operating foundations, donor-advised fund accounts and supporting organizations, but will also review the use of section 501(c)(4) social welfare organizations and LLCs to meet the needs of different donor profiles.</t>
   </si>
   <si>
-    <t>Flexibility or no flexibility for dynasty trusts? Can we solve for settlor  intentions, beneficiary predilections, tax considerations, and state law limitations without fiduciary litigation?  This session will examine the options.</t>
-  </si>
-  <si>
     <t>This program will cover the manner in which donors should approach planned giving under uncertain or new tax laws as well as changes affecting the charitable deduction and their impact on planned giving techniques. It will also explore other reasons donors make gifts and whether these considerations are likely to outweigh new tax limitations in a donor’s gift considerations.</t>
   </si>
   <si>
-    <t>Once again, significant tax reform, whether enacted or anticipated, has created great uncertainty with regard to where, when and how life insurance should be used in financial  and  estate planning. This presentation will cover the implications of wealth transfer tax reform or repeal on the use of life insurance in estate planning, the structure of new purchases, and the options for dealing with policies that clients believe are no longer needed or wanted for their original purpose.</t>
-  </si>
-  <si>
     <t>This program will look at specific planned giving techniques and their continued benefits to donors under new or proposed tax law changes with a focus on charitable gift annuities, remainder trusts, and lead trusts.</t>
   </si>
   <si>
-    <t>Through the use of case studies this session will examine many of the ethical issues involved in all aspects of the life cycle of a closely-held  business, from inception to end.  Some of the areas to be examined are competence, timeliness of work, keeping the clients informed, and, of course, the conflicts that can arise in representing more than one party involved in the business.</t>
-  </si>
-  <si>
-    <t>High net worth families (and family offices) should have a working  knowledge of employment issues – both those impacting family employees and staff at the family office. This session will focus on issues unique to family (domestic) employees such as the Fair Labor Standards Act, classification as an employee versus independent contractor, and liability. It will also address issues related to more high-level employees of the office, including  hiring, compensation, performance reviews, terminations, and liability. Finally, it will address issues related to employing non-U.S. citizens.</t>
-  </si>
-  <si>
     <t>The world is becoming more litigious, especially in the private client arena. Fiduciary accountings, when collaborated on by legal and accounting professionals, not only can protect fiduciaries and the professionals who represent them from litigation, but they also can form the basis for innovative win-win solutions when litigation occurs by distinguishing accounting from tax income, reallocating receipts and expenses between income and principal, facilitating pre- and post-mortem estate planning, and mitigating income and transfer taxation.</t>
   </si>
   <si>
@@ -1550,50 +1491,6 @@
     <t>Fundamentals Program</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Materials by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Steve R. Akers, Samuel A. Donaldson, Charles D. "Skip" Fox, IV, Jeffrey N. Pennell, and Howard M. Zaritsky</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edited by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Ronald D. Aucutt</t>
-    </r>
-  </si>
-  <si>
     <t>ProgramTitle</t>
   </si>
   <si>
@@ -1601,17 +1498,72 @@
   </si>
   <si>
     <t>Special Sessions</t>
+  </si>
+  <si>
+    <t>Stephanie Loomis-Price</t>
+  </si>
+  <si>
+    <t>This panel will analyze the most significant developments of 2017, including the planning implications of enacted or anticipated legislation.
+Edited by: Ronald D. Aucutt
+Materials by: Steve R. Akers, Samuel A. Donaldson, Charles D. "Skip" Fox, IV, Jeffrey N. Pennell, and Howard M. Zaritsky</t>
+  </si>
+  <si>
+    <t>Tina Portuondo, Director, Heckerling Institute
+Patricia D. White, Dean, University of Miami School of Law</t>
+  </si>
+  <si>
+    <t>Tina Portuondo</t>
+  </si>
+  <si>
+    <t>Patricia D. White</t>
+  </si>
+  <si>
+    <t>Business Succession: Abdicate? Affiliate? Alienate? Bifurcate? Syndicate? Liquidate? Vacillate? Don't Wait. Cogitate and Participate.</t>
+  </si>
+  <si>
+    <t>Lloyd Leva Plaine Distinguished Lecture                   Money in Politics: A Hydraulic or a Legal Issue?</t>
+  </si>
+  <si>
+    <t>For over a century federal law has attempted to regulate the sources and amounts of money in elections. The result proves to some that money is a hydraulic force: efforts to channel it only result in broken dikes and washed away dams. Others believe that the problem is inartful drafting, failed regulators, partisan greediness, the leveraging of the tax code to subvert the campaign finance laws, and a Supreme Court which has no understanding of how politics and the legislative system actually work. Which is it?</t>
+  </si>
+  <si>
+    <t>This session will focus on practical issues in structuring an estate plan to withstand a potential contest or a beneficiary likely to disrupt the post-death administration. It will focus on enhancing the enforceability of no contest clauses as well as structuring an estate plan to mitigate fiduciary risk.</t>
+  </si>
+  <si>
+    <t>This panel will discuss new laws, regulations and options that estate planners must know to plan effectively for a secure quality of life for a person with a disability.</t>
+  </si>
+  <si>
+    <t>Flexibility or no flexibility for dynasty trusts? Can we solve for settlor intentions, beneficiary predilections, tax considerations, and state law limitations without fiduciary litigation? This session will examine the options.</t>
+  </si>
+  <si>
+    <t>This program will focus on the income tax and wealth transfer tax planning opportunities (and pitfalls) associated with planning for real estate investors including a discussion of non-tax considerations and obstacles, such as obtaining third-party consents. The program will also explore valuation discount planning, freeze, and leveraging strategies for specific types of assets and ownership structures typically found in real estate deals.</t>
+  </si>
+  <si>
+    <t>After three years of collaborative effort, last summer the Uniform Law Commission approved the Uniform Directed Trust Act. This panel will explore the effective use of directed trusts, including fiduciary and tax issues, from drafting, administration, and beneficiary points of view in light of the new uniform act and existing state statutes.</t>
+  </si>
+  <si>
+    <t>Once again, significant tax reform, whether enacted or anticipated, has created great uncertainty with regard to where, when and how life insurance should be used in financial and estate planning. This presentation will cover the implications of wealth transfer tax reform or repeal on the use of life insurance in estate planning, the structure of new purchases, and the options for dealing with policies that clients believe are no longer needed or wanted for their original purpose.</t>
+  </si>
+  <si>
+    <t>Through the use of case studies this session will examine many of the ethical issues involved in all aspects of the life cycle of a closely-held business, from inception to end. Some of the areas to be examined are competence, timeliness of work, keeping the clients informed, and, of course, the conflicts that can arise in representing more than one party involved in the business.</t>
+  </si>
+  <si>
+    <t>High net worth families (and family offices) should have a working knowledge of employment issues – both those impacting family employees and staff at the family office. This session will focus on issues unique to family (domestic) employees such as the Fair Labor Standards Act, classification as an employee versus independent contractor, and liability. It will also address issues related to more high-level employees of the office, including hiring, compensation, performance reviews, terminations, and liability. Finally, it will address issues related to employing non-U.S. citizens.</t>
+  </si>
+  <si>
+    <t>At 70½ your IRA tax shelter becomes a tax nightmare. Help older clients minimize or eliminate RMDs. Plus, when and how to take RMDs, and where to take them from.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1701,14 +1653,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF231F20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1745,7 +1689,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1763,8 +1707,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1880,8 +1832,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1890,6 +1863,10 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1898,6 +1875,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2179,15 +2160,15 @@
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="61.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="63.83203125" style="4" customWidth="1"/>
@@ -2203,17 +2184,17 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -2250,15 +2231,15 @@
       <c r="A2" s="28">
         <v>43121</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="42">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="42">
         <v>0.75</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -2275,13 +2256,13 @@
       <c r="A3" s="28">
         <v>43122</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="42">
         <v>0.29166666666666669</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -2298,10 +2279,10 @@
       <c r="A4" s="10">
         <v>43122</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="43">
         <v>0.375</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="43">
         <v>0.51041666666666663</v>
       </c>
       <c r="D4" s="11"/>
@@ -2309,41 +2290,41 @@
         <v>19</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H4" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="28">
         <v>43122</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="42">
         <v>0.4375</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="42">
         <v>0.44791666666666669</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="31" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="12"/>
@@ -2360,15 +2341,15 @@
       <c r="A6" s="28">
         <v>43122</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="42">
         <v>0.51041666666666663</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="42">
         <v>0.58333333333333337</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="12"/>
@@ -2381,27 +2362,29 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" ht="75">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="25">
         <v>43122</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="44">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="44">
         <v>0.59027777777777779</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" s="36"/>
+        <v>461</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>479</v>
+      </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -2410,60 +2393,56 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" ht="150">
+    <row r="8" spans="1:15" ht="105">
       <c r="A8" s="10">
         <v>43122</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="43">
         <v>0.59027777777777779</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="43">
         <v>0.71875</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="I8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>491</v>
-      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="28">
         <v>43122</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="42">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="42">
         <v>0.65625</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="31" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="12"/>
@@ -2480,15 +2459,15 @@
       <c r="A10" s="28">
         <v>43122</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="42">
         <v>0.75</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="42">
         <v>0.79166666666666663</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="31" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="12"/>
@@ -2505,24 +2484,24 @@
       <c r="A11" s="13">
         <v>43123</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="45">
         <v>0.375</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="45">
         <v>0.40972222222222227</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -2531,31 +2510,31 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="60">
       <c r="A12" s="10">
         <v>43123</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="43">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="43">
         <v>0.44444444444444442</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="15" t="s">
-        <v>32</v>
+        <v>482</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2564,22 +2543,22 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="28">
         <v>43123</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="42">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="42">
         <v>0.44791666666666669</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="32" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="12"/>
@@ -2596,24 +2575,24 @@
       <c r="A14" s="10">
         <v>43123</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="43">
         <v>0.4548611111111111</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="43">
         <v>0.48958333333333331</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -2622,31 +2601,31 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="105">
       <c r="A15" s="10">
         <v>43123</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="43">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C15" s="11">
-        <v>2.4305555555555556E-2</v>
+      <c r="C15" s="43">
+        <v>0.52430555555555558</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="17" t="s">
-        <v>37</v>
+        <v>483</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -2655,22 +2634,22 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="28">
         <v>43123</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="42">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="42">
         <v>0.58333333333333337</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="31" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="12"/>
@@ -2687,24 +2666,24 @@
       <c r="A17" s="10">
         <v>43123</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="43">
         <v>0.61805555555555558</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>40</v>
+        <v>485</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2713,31 +2692,31 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30">
       <c r="A18" s="10">
         <v>43123</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="43">
         <v>0.61805555555555558</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="43">
         <v>0.65277777777777779</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -2746,22 +2725,22 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="28">
         <v>43123</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="42">
         <v>0.65277777777777779</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="42">
         <v>0.66319444444444442</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="32" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
@@ -2778,24 +2757,24 @@
       <c r="A20" s="10">
         <v>43123</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="43">
         <v>0.66319444444444442</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="43">
         <v>0.69791666666666663</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -2804,31 +2783,31 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="75">
       <c r="A21" s="10">
         <v>43123</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="43">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="43">
         <v>0.73263888888888884</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -2837,31 +2816,31 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="120">
       <c r="A22" s="10">
         <v>43124</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="43">
         <v>0.375</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="43">
         <v>0.40972222222222227</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -2870,31 +2849,31 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="105">
       <c r="A23" s="10">
         <v>43124</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="43">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="43">
         <v>0.44444444444444442</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -2903,22 +2882,22 @@
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="28">
         <v>43124</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="42">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="42">
         <v>0.4548611111111111</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="32" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="12"/>
@@ -2935,71 +2914,71 @@
       <c r="A25" s="2">
         <v>43124</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="46">
         <v>0.4548611111111111</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="46">
         <v>0.52430555555555558</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="33">
         <v>43124</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="47">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="47">
         <v>0.58333333333333337</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="31" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="60">
       <c r="A27" s="10">
         <v>43124</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -3007,75 +2986,75 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="90">
       <c r="A28" s="10">
         <v>43124</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="60">
       <c r="A29" s="10">
         <v>43124</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3083,36 +3062,36 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="90">
       <c r="A30" s="10">
         <v>43124</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -3120,33 +3099,33 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="45">
       <c r="A31" s="10">
         <v>43124</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -3155,100 +3134,100 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="45">
       <c r="A32" s="10">
         <v>43124</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="90">
       <c r="A33" s="10">
         <v>43124</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="28">
         <v>43124</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="42">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="42">
         <v>0.65972222222222221</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="31" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="12"/>
@@ -3265,68 +3244,68 @@
       <c r="A35" s="10">
         <v>43124</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="45">
       <c r="A36" s="10">
         <v>43124</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -3334,187 +3313,187 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="135">
       <c r="A37" s="10">
         <v>43124</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="105">
       <c r="A38" s="10">
         <v>43124</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60">
       <c r="A39" s="10">
         <v>43124</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="45">
       <c r="A40" s="10">
         <v>43124</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="105">
       <c r="A41" s="10">
         <v>43125</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="43">
         <v>0.375</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="43">
         <v>0.40972222222222227</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -3523,31 +3502,31 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="75">
       <c r="A42" s="10">
         <v>43125</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="43">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="43">
         <v>0.44444444444444442</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3556,22 +3535,22 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="28">
         <v>43125</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="42">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="42">
         <v>0.4548611111111111</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="31" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="12"/>
@@ -3588,24 +3567,24 @@
       <c r="A44" s="10">
         <v>43125</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="43">
         <v>0.4548611111111111</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="43">
         <v>0.48958333333333331</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
@@ -3614,31 +3593,31 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="90">
       <c r="A45" s="10">
         <v>43125</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="43">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="43">
         <v>0.52430555555555558</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>139</v>
+        <v>488</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3647,22 +3626,22 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="28">
         <v>43125</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="42">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="42">
         <v>0.58333333333333337</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="31" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="12"/>
@@ -3679,184 +3658,184 @@
       <c r="A47" s="10">
         <v>43125</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="75">
       <c r="A48" s="10">
         <v>43125</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="79.5" customHeight="1">
       <c r="A49" s="10">
         <v>43125</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="105">
       <c r="A50" s="10">
         <v>43125</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="45">
       <c r="A51" s="10">
         <v>43125</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
@@ -3865,75 +3844,75 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="75">
       <c r="A52" s="10">
         <v>43125</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="120">
       <c r="A53" s="10">
         <v>43125</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="43">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="43">
         <v>0.64583333333333337</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="12"/>
@@ -3941,22 +3920,22 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="28">
         <v>43125</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="42">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="42">
         <v>0.65972222222222221</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="32" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="20"/>
@@ -3973,26 +3952,26 @@
       <c r="A55" s="10">
         <v>43125</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I55" s="12"/>
       <c r="J55" s="12"/>
@@ -4001,36 +3980,36 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="120">
       <c r="A56" s="10">
         <v>43125</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -4038,36 +4017,36 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="75">
       <c r="A57" s="10">
         <v>43125</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -4075,115 +4054,115 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="60">
       <c r="A58" s="10">
         <v>43125</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="75">
       <c r="A59" s="10">
         <v>43125</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="43">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="43">
         <v>0.72222222222222221</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="12" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="60">
       <c r="A60" s="10">
         <v>43126</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="43">
         <v>0.375</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="43">
         <v>0.40972222222222227</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
@@ -4192,31 +4171,31 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="60">
       <c r="A61" s="10">
         <v>43126</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="43">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="43">
         <v>0.44444444444444442</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4225,22 +4204,22 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="28">
         <v>43126</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="42">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="42">
         <v>0.4513888888888889</v>
       </c>
       <c r="D62" s="29"/>
       <c r="E62" s="31" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="12"/>
@@ -4257,27 +4236,27 @@
       <c r="A63" s="10">
         <v>43126</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="43">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="43">
         <v>0.5</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
@@ -4285,13 +4264,13 @@
       <c r="M63" s="12"/>
       <c r="N63" s="12"/>
       <c r="O63" s="12" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="11"/>
       <c r="E64" s="39"/>
       <c r="F64" s="12"/>
@@ -4307,8 +4286,8 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="11"/>
       <c r="E65" s="40"/>
       <c r="F65" s="12"/>
@@ -4324,8 +4303,8 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -4341,8 +4320,8 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="10"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -4358,8 +4337,8 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="11"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -4375,8 +4354,8 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="10"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -4392,8 +4371,8 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="10"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -4409,8 +4388,8 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="10"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -4426,8 +4405,8 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4443,8 +4422,8 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="11"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -4460,8 +4439,8 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -4477,8 +4456,8 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="10"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="11"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -4494,8 +4473,8 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="10"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="11"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -4511,8 +4490,8 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="10"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -4528,8 +4507,8 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -4545,8 +4524,8 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="10"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -4562,8 +4541,8 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -4579,8 +4558,8 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="10"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -4596,8 +4575,8 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="10"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -4613,8 +4592,8 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="10"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -4630,8 +4609,8 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -4647,8 +4626,8 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="10"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -4664,8 +4643,8 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="10"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -4681,8 +4660,8 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="10"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -4698,8 +4677,8 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="10"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="11"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -4715,8 +4694,8 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -4732,8 +4711,8 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -4749,8 +4728,8 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -4766,8 +4745,8 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="11"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -4783,8 +4762,8 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="11"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -4800,8 +4779,8 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="10"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -4817,8 +4796,8 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="10"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="11"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -4834,8 +4813,8 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="10"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -4851,8 +4830,8 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -4868,8 +4847,8 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -4885,8 +4864,8 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -4902,8 +4881,8 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
       <c r="D100" s="11"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -4919,8 +4898,8 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="10"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
       <c r="D101" s="11"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -4936,8 +4915,8 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="10"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="11"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -4953,8 +4932,8 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="11"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -4970,8 +4949,8 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="11"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -4987,8 +4966,8 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="10"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
       <c r="D105" s="11"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -5004,8 +4983,8 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="10"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
       <c r="D106" s="11"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -5021,8 +5000,8 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="10"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
       <c r="D107" s="11"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -5038,8 +5017,8 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="10"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
       <c r="D108" s="11"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -5055,8 +5034,8 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
       <c r="D109" s="11"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -5072,8 +5051,8 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
       <c r="D110" s="11"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -5089,8 +5068,8 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="10"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -5106,8 +5085,8 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
       <c r="D112" s="11"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -5123,8 +5102,8 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="10"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
       <c r="D113" s="11"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -5140,8 +5119,8 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="10"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="11"/>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -5157,8 +5136,8 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="10"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
       <c r="D115" s="11"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -5174,8 +5153,8 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="10"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="11"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -5191,8 +5170,8 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="10"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
       <c r="D117" s="11"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -5251,968 +5230,968 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="21" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="21" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="21" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="21" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="21" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="21" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="21" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="21" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="21" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="21" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D19" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="21" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="21" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D21" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="21" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="21" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="21" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="21" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="21" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D28" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="21" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="21" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="21" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="22" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D33" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="21" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D35" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="21" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="21" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C37" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D37" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="22" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="21" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D41" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D42" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="21" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D43" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="21" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D44" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="21" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D45" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="21" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="21" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C48" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D48" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="21" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C49" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D49" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="21" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="21" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="21" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D52" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="21" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D54" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="21" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D56" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="21" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="22" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D58" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D59" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="21" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C60" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D60" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="21" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D61" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="21" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D62" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="22" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C65" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D65" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D66" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C67" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D67" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D69" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="22" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="21" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
